--- a/Assets/AssetsLibrary/excel/UIPanel.xlsx
+++ b/Assets/AssetsLibrary/excel/UIPanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,23 +155,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AboutForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dssf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gfgfhg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fdgh</t>
+    <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,14 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="27.625" customWidth="1"/>
@@ -648,16 +657,16 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -677,13 +686,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -692,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -712,36 +721,68 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
         <v>0</v>
       </c>
     </row>
